--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="82">
   <si>
     <t>Profile</t>
   </si>
@@ -83,6 +83,15 @@
     <t>CodeableConceptĵ</t>
   </si>
   <si>
+    <t>grading</t>
+  </si>
+  <si>
+    <t>Grading</t>
+  </si>
+  <si>
+    <t>LOINC#33732-9</t>
+  </si>
+  <si>
     <t>histologie</t>
   </si>
   <si>
@@ -92,6 +101,33 @@
     <t>LOINC#59847-4, International Classification of Diseases for Oncology, version 3.#null</t>
   </si>
   <si>
+    <t>HistologieLymphknoten</t>
+  </si>
+  <si>
+    <t>SNOMED CT#364108009</t>
+  </si>
+  <si>
+    <t>LOINC#21894-1</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>LOINC#21893-3</t>
+  </si>
+  <si>
+    <t>SNOMED CT#444411008</t>
+  </si>
+  <si>
+    <t>SNOMED CT#1264491009</t>
+  </si>
+  <si>
+    <t>SNOMED CT#371524004</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
     <t>status-fernmetastasen</t>
   </si>
   <si>
@@ -119,6 +155,66 @@
     <t>LOINC#22035-0</t>
   </si>
   <si>
+    <t>tnm-distant-metastases-category</t>
+  </si>
+  <si>
+    <t>TNM Distant Metastases Category Profile</t>
+  </si>
+  <si>
+    <t>TNMASymbol</t>
+  </si>
+  <si>
+    <t>LOINC#101660-9</t>
+  </si>
+  <si>
+    <t>booleanĵ</t>
+  </si>
+  <si>
+    <t>TNMLKategorie</t>
+  </si>
+  <si>
+    <t>LOINC#33739-4</t>
+  </si>
+  <si>
+    <t>TNMmSymbol</t>
+  </si>
+  <si>
+    <t>TNMPnKategorie</t>
+  </si>
+  <si>
+    <t>LOINC#92837-4</t>
+  </si>
+  <si>
+    <t>TNMRSymbol</t>
+  </si>
+  <si>
+    <t>LOINC#21983-2</t>
+  </si>
+  <si>
+    <t>TNMSKategorie</t>
+  </si>
+  <si>
+    <t>SNOMED CT#399424006</t>
+  </si>
+  <si>
+    <t>TNMVKategorie</t>
+  </si>
+  <si>
+    <t>LOINC#33740-2</t>
+  </si>
+  <si>
+    <t>TNMYSmbol</t>
+  </si>
+  <si>
+    <t>LOINC#59479-6</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>TNMYSymbol</t>
+  </si>
+  <si>
     <t>tumorkonferenz-bemerkung</t>
   </si>
   <si>
@@ -126,9 +222,6 @@
   </si>
   <si>
     <t>SNOMED CT#703852005</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
   </si>
   <si>
     <t>tumorkonferenz-fragestellung</t>
@@ -298,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -429,10 +522,10 @@
         <v>13</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>17</v>
@@ -464,10 +557,10 @@
         <v>13</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>17</v>
@@ -484,17 +577,17 @@
         <v>29</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="F6" t="s" s="2">
         <v>13</v>
       </c>
@@ -502,7 +595,7 @@
         <v>21</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>17</v>
@@ -516,28 +609,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>17</v>
@@ -551,10 +644,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -563,16 +656,16 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>17</v>
@@ -586,10 +679,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -598,16 +691,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -621,10 +714,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -633,16 +726,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -656,10 +749,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -668,16 +761,16 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -691,36 +784,631 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s" s="2">
+      <c r="B16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s" s="2">
+      <c r="F16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s" s="2">
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
   <si>
     <t>Profile</t>
   </si>
@@ -203,16 +203,13 @@
     <t>LOINC#33740-2</t>
   </si>
   <si>
-    <t>TNMYSmbol</t>
+    <t>TNMYSymbol</t>
   </si>
   <si>
     <t>LOINC#59479-6</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>TNMYSymbol</t>
   </si>
   <si>
     <t>tumorkonferenz-bemerkung</t>
@@ -391,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,7 +1204,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1216,16 +1213,16 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1251,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
@@ -1274,10 +1271,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1286,7 +1283,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
@@ -1309,10 +1306,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1321,7 +1318,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1344,10 +1341,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1356,7 +1353,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
@@ -1374,41 +1371,6 @@
         <v>13</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K29" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="82">
   <si>
     <t>Profile</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>TNMmSymbol</t>
+  </si>
+  <si>
+    <t>SNOMED CT#277650004</t>
   </si>
   <si>
     <t>TNMPnKategorie</t>
@@ -1003,7 +1006,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
@@ -1026,10 +1029,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1038,7 +1041,7 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>13</v>
@@ -1061,10 +1064,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1073,7 +1076,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
@@ -1096,10 +1099,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1108,7 +1111,7 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
@@ -1131,10 +1134,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1143,7 +1146,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
@@ -1166,10 +1169,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1178,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>13</v>
@@ -1187,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1201,10 +1204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1213,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1248,7 +1251,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
@@ -1271,10 +1274,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1283,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
@@ -1306,10 +1309,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1318,7 +1321,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1341,10 +1344,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1353,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="158">
   <si>
     <t>Profile</t>
   </si>
@@ -47,25 +47,115 @@
     <t>Method</t>
   </si>
   <si>
+    <t>bemerkung-freitext</t>
+  </si>
+  <si>
+    <t>BemerkungFreitext</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CustomCodes#bemerkungFreitext</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>ct-mrt-abdomen</t>
+  </si>
+  <si>
+    <t>CT/MRT Abdomen</t>
+  </si>
+  <si>
+    <t>CustomCodes#ctMRTAbdomen</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>ct-mrt-schaedel</t>
+  </si>
+  <si>
+    <t>CT/MRT Schädel</t>
+  </si>
+  <si>
+    <t>CustomCodes#ctMRTSchaedel</t>
+  </si>
+  <si>
+    <t>DiagnoseFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#diagnoseFreitext</t>
+  </si>
+  <si>
     <t>ecog</t>
   </si>
   <si>
     <t>ECOG</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>LOINC#89247-1</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
     <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
-    <t>optional</t>
+    <t>externe-bilder</t>
+  </si>
+  <si>
+    <t>ExterneBilder</t>
+  </si>
+  <si>
+    <t>CustomCodes#externeBilder</t>
+  </si>
+  <si>
+    <t>familienanamnese-drop-down</t>
+  </si>
+  <si>
+    <t>Familienanamnese DropDown</t>
+  </si>
+  <si>
+    <t>CustomCodes#familienanamnese</t>
+  </si>
+  <si>
+    <t>FertilitaetsBehandlungEmpfohlen</t>
+  </si>
+  <si>
+    <t>CustomCodes#fertilitaetsBehandlungEmpfohlen</t>
+  </si>
+  <si>
+    <t>fragestellung-pathologie-freitext</t>
+  </si>
+  <si>
+    <t>FragestellungPathologieFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#fragestellungPathologieFreitext</t>
+  </si>
+  <si>
+    <t>fragestellung-radiologie-freitext</t>
+  </si>
+  <si>
+    <t>FragestellungRadiologieFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#fragestellungRadiologieFreitext</t>
+  </si>
+  <si>
+    <t>fragestellung-tumorkonferenz-freitext</t>
+  </si>
+  <si>
+    <t>FragestellungTumorkonferenzFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#fragestellungTumorkonferenzFreitext</t>
   </si>
   <si>
     <t>gesamtbeurteilung</t>
@@ -83,6 +173,15 @@
     <t>CodeableConceptĵ</t>
   </si>
   <si>
+    <t>gewuenschte-teilnehmer</t>
+  </si>
+  <si>
+    <t>Gewünschte Teilnehmer</t>
+  </si>
+  <si>
+    <t>CustomCodes#gewuenschteTeilnehmer</t>
+  </si>
+  <si>
     <t>grading</t>
   </si>
   <si>
@@ -125,7 +224,97 @@
     <t>SNOMED CT#371524004</t>
   </si>
   <si>
-    <t>stringĵ</t>
+    <t>HistologieMolPatFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#histologieMolPatFreitext</t>
+  </si>
+  <si>
+    <t>histologische-typisierung-lunge</t>
+  </si>
+  <si>
+    <t>Histologische Typisierung Lunge</t>
+  </si>
+  <si>
+    <t>CustomCodes#histologischeTypisierung</t>
+  </si>
+  <si>
+    <t>lungenfunktionstest</t>
+  </si>
+  <si>
+    <t>Lungenfunktionstest</t>
+  </si>
+  <si>
+    <t>CustomCodes#lungenfunktionstest</t>
+  </si>
+  <si>
+    <t>medikamentoese-therapie-freitext</t>
+  </si>
+  <si>
+    <t>MedikamentöseTherapieFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#medikamentoeseTherapieFreitext</t>
+  </si>
+  <si>
+    <t>OperativeTherapieFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#operativeTherapieFreitext</t>
+  </si>
+  <si>
+    <t>pet-ct</t>
+  </si>
+  <si>
+    <t>PetCT</t>
+  </si>
+  <si>
+    <t>CustomCodes#petCT</t>
+  </si>
+  <si>
+    <t>praxis-pathologisches-institut-freitext</t>
+  </si>
+  <si>
+    <t>PraxisPathologischesInstitutFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#praxisPathologischesInstitutFreitext</t>
+  </si>
+  <si>
+    <t>psa-verlauf-freitext</t>
+  </si>
+  <si>
+    <t>PsaVerlaufFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#psaVerlaufFreitext</t>
+  </si>
+  <si>
+    <t>radiologie-bilder-freitext</t>
+  </si>
+  <si>
+    <t>RadiologieBilderFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#radiologieBilderFreitext</t>
+  </si>
+  <si>
+    <t>relevante-nebendiagnosen-freitext</t>
+  </si>
+  <si>
+    <t>RelevanteNebendiagnosenFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#relevanteNebendiagnosenFreitext</t>
+  </si>
+  <si>
+    <t>skelettszintigraphie</t>
+  </si>
+  <si>
+    <t>Skelettszintigraphie</t>
+  </si>
+  <si>
+    <t>CustomCodes#skelettszintigraphie</t>
   </si>
   <si>
     <t>status-fernmetastasen</t>
@@ -155,6 +344,12 @@
     <t>LOINC#22035-0</t>
   </si>
   <si>
+    <t>StrahlenTherapieFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#strahlenTherapieFreitext</t>
+  </si>
+  <si>
     <t>tnm-distant-metastases-category</t>
   </si>
   <si>
@@ -170,6 +365,12 @@
     <t>booleanĵ</t>
   </si>
   <si>
+    <t>TNMFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#tnm-FreitextObservation</t>
+  </si>
+  <si>
     <t>TNMLKategorie</t>
   </si>
   <si>
@@ -258,6 +459,33 @@
   </si>
   <si>
     <t>SNOMED CT#308273005</t>
+  </si>
+  <si>
+    <t>tumorsituation</t>
+  </si>
+  <si>
+    <t>Tumorsituation</t>
+  </si>
+  <si>
+    <t>CustomCodes#tumorsituation</t>
+  </si>
+  <si>
+    <t>verlauf-freitext</t>
+  </si>
+  <si>
+    <t>VerlaufFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#verlaufFreitext</t>
+  </si>
+  <si>
+    <t>weitere-gewuenschte-teilnehmer-freitext</t>
+  </si>
+  <si>
+    <t>WeitereGewuenschteTeilnehmerFreitext</t>
+  </si>
+  <si>
+    <t>CustomCodes#weitereGewuenschteTeilnehmerFreitext</t>
   </si>
 </sst>
 </file>
@@ -391,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -487,10 +715,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>17</v>
@@ -504,28 +732,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="F4" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>17</v>
@@ -539,19 +767,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>13</v>
@@ -574,28 +802,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="2">
+      <c r="F6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>13</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>17</v>
@@ -609,10 +837,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -621,16 +849,16 @@
         <v>13</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>17</v>
@@ -644,10 +872,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>13</v>
@@ -656,16 +884,16 @@
         <v>13</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>17</v>
@@ -679,10 +907,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -691,16 +919,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -714,10 +942,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -726,16 +954,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -749,10 +977,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -761,16 +989,16 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -784,10 +1012,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -796,16 +1024,16 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -819,10 +1047,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -831,16 +1059,16 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>17</v>
@@ -854,10 +1082,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -866,16 +1094,16 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>17</v>
@@ -889,10 +1117,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -901,16 +1129,16 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -924,10 +1152,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -936,16 +1164,16 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -959,10 +1187,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -971,16 +1199,16 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -994,10 +1222,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1006,16 +1234,16 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1029,10 +1257,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1041,16 +1269,16 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1064,10 +1292,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1076,16 +1304,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1099,10 +1327,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1111,16 +1339,16 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1134,7 +1362,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>62</v>
@@ -1146,16 +1374,16 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1169,10 +1397,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1181,16 +1409,16 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1204,10 +1432,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1216,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
@@ -1225,7 +1453,7 @@
         <v>15</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1239,10 +1467,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1251,7 +1479,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
@@ -1260,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1274,10 +1502,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1286,7 +1514,7 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
@@ -1295,7 +1523,7 @@
         <v>15</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>17</v>
@@ -1309,10 +1537,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1321,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1330,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>17</v>
@@ -1344,10 +1572,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1356,7 +1584,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
@@ -1365,7 +1593,7 @@
         <v>15</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>17</v>
@@ -1374,6 +1602,951 @@
         <v>13</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="171">
   <si>
     <t>Profile</t>
   </si>
@@ -107,6 +107,27 @@
     <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
+    <t>Erstdiagnose</t>
+  </si>
+  <si>
+    <t>CustomCodes#erstdiagnose</t>
+  </si>
+  <si>
+    <t>CustomCodes#datumED</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>CustomCodes#stadiumBeiED</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>CustomCodes#cTNMbeiED</t>
+  </si>
+  <si>
     <t>externe-bilder</t>
   </si>
   <si>
@@ -414,6 +435,24 @@
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>tumor-board-anmeldung</t>
+  </si>
+  <si>
+    <t>TumorBoardAnmeldung</t>
+  </si>
+  <si>
+    <t>CustomCodes#tumorBoardAnmeldung</t>
+  </si>
+  <si>
+    <t>CustomCodes#tumorboard</t>
+  </si>
+  <si>
+    <t>CustomCodes#terminwunsch</t>
+  </si>
+  <si>
+    <t>CustomCodes#zweitmeinung</t>
   </si>
   <si>
     <t>tumorkonferenz-bemerkung</t>
@@ -619,7 +658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -840,17 +879,17 @@
         <v>31</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="F7" t="s" s="2">
         <v>13</v>
       </c>
@@ -858,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>17</v>
@@ -872,28 +911,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>17</v>
@@ -907,10 +946,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>13</v>
@@ -919,16 +958,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -942,10 +981,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>13</v>
@@ -954,16 +993,16 @@
         <v>13</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>17</v>
@@ -977,10 +1016,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -989,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>13</v>
@@ -998,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>17</v>
@@ -1012,10 +1051,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>13</v>
@@ -1024,7 +1063,7 @@
         <v>13</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>13</v>
@@ -1033,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>17</v>
@@ -1047,10 +1086,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>13</v>
@@ -1059,16 +1098,16 @@
         <v>13</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>17</v>
@@ -1082,10 +1121,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -1094,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>13</v>
@@ -1103,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>17</v>
@@ -1117,10 +1156,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -1129,16 +1168,16 @@
         <v>13</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>17</v>
@@ -1152,10 +1191,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>13</v>
@@ -1164,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>13</v>
@@ -1173,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>17</v>
@@ -1187,10 +1226,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>13</v>
@@ -1199,16 +1238,16 @@
         <v>13</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -1222,28 +1261,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>64</v>
-      </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1257,10 +1296,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1269,16 +1308,16 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1292,10 +1331,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1304,16 +1343,16 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1327,10 +1366,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1339,16 +1378,16 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1365,7 +1404,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1374,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
@@ -1383,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1397,10 +1436,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1409,16 +1448,16 @@
         <v>13</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1432,10 +1471,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1450,10 +1489,10 @@
         <v>13</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1467,28 +1506,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1502,10 +1541,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1514,13 +1553,13 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>16</v>
@@ -1537,10 +1576,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1549,7 +1588,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1572,10 +1611,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1584,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
@@ -1607,10 +1646,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1619,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>13</v>
@@ -1628,7 +1667,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>17</v>
@@ -1642,10 +1681,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1654,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>13</v>
@@ -1677,10 +1716,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1689,7 +1728,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>13</v>
@@ -1712,10 +1751,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1724,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>13</v>
@@ -1733,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>17</v>
@@ -1747,10 +1786,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1759,7 +1798,7 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>13</v>
@@ -1768,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>17</v>
@@ -1782,10 +1821,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1794,16 +1833,16 @@
         <v>13</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>17</v>
@@ -1817,10 +1856,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>13</v>
@@ -1829,16 +1868,16 @@
         <v>13</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>17</v>
@@ -1852,10 +1891,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>13</v>
@@ -1864,16 +1903,16 @@
         <v>13</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>17</v>
@@ -1887,10 +1926,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>13</v>
@@ -1899,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>13</v>
@@ -1908,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>17</v>
@@ -1922,10 +1961,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1934,16 +1973,16 @@
         <v>13</v>
       </c>
       <c r="E38" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="H38" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>17</v>
@@ -1957,10 +1996,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>13</v>
@@ -1969,16 +2008,16 @@
         <v>13</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>17</v>
@@ -1992,10 +2031,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>13</v>
@@ -2004,16 +2043,16 @@
         <v>13</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>17</v>
@@ -2027,10 +2066,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>13</v>
@@ -2039,16 +2078,16 @@
         <v>13</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>17</v>
@@ -2062,10 +2101,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -2074,16 +2113,16 @@
         <v>13</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>17</v>
@@ -2097,28 +2136,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>17</v>
@@ -2132,28 +2171,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="F44" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>17</v>
@@ -2167,28 +2206,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="F45" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>17</v>
@@ -2202,28 +2241,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B46" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="F46" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>17</v>
@@ -2237,28 +2276,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="B47" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="F47" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>17</v>
@@ -2272,10 +2311,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>13</v>
@@ -2284,16 +2323,16 @@
         <v>13</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>17</v>
@@ -2307,10 +2346,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2319,16 +2358,16 @@
         <v>13</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>17</v>
@@ -2342,10 +2381,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>13</v>
@@ -2354,16 +2393,16 @@
         <v>13</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>17</v>
@@ -2377,10 +2416,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>13</v>
@@ -2389,16 +2428,16 @@
         <v>13</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>17</v>
@@ -2412,10 +2451,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>13</v>
@@ -2424,7 +2463,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>13</v>
@@ -2433,7 +2472,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>17</v>
@@ -2447,10 +2486,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>13</v>
@@ -2459,13 +2498,13 @@
         <v>13</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>21</v>
@@ -2482,10 +2521,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>13</v>
@@ -2494,16 +2533,16 @@
         <v>13</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>17</v>
@@ -2517,36 +2556,316 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="F58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s" s="2">
+      <c r="B59" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="F55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H55" t="s" s="2">
+      <c r="C59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="I55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s" s="2">
+      <c r="I59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="108">
   <si>
     <t>Profile</t>
   </si>
@@ -179,21 +179,6 @@
     <t>CustomCodes#fragestellungTumorkonferenzFreitext</t>
   </si>
   <si>
-    <t>gesamtbeurteilung</t>
-  </si>
-  <si>
-    <t>Gesamtbeurteilung</t>
-  </si>
-  <si>
-    <t>LOINC#72135-7</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
     <t>gewuenschte-teilnehmer</t>
   </si>
   <si>
@@ -203,48 +188,6 @@
     <t>CustomCodes#gewuenschteTeilnehmer</t>
   </si>
   <si>
-    <t>grading</t>
-  </si>
-  <si>
-    <t>Grading</t>
-  </si>
-  <si>
-    <t>LOINC#33732-9</t>
-  </si>
-  <si>
-    <t>histologie</t>
-  </si>
-  <si>
-    <t>Histologie</t>
-  </si>
-  <si>
-    <t>LOINC#59847-4, International Classification of Diseases for Oncology, version 3.#null</t>
-  </si>
-  <si>
-    <t>HistologieLymphknoten</t>
-  </si>
-  <si>
-    <t>SNOMED CT#364108009</t>
-  </si>
-  <si>
-    <t>LOINC#21894-1</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
-    <t>LOINC#21893-3</t>
-  </si>
-  <si>
-    <t>SNOMED CT#444411008</t>
-  </si>
-  <si>
-    <t>SNOMED CT#1264491009</t>
-  </si>
-  <si>
-    <t>SNOMED CT#371524004</t>
-  </si>
-  <si>
     <t>HistologieMolPatFreitext</t>
   </si>
   <si>
@@ -338,105 +281,18 @@
     <t>CustomCodes#skelettszintigraphie</t>
   </si>
   <si>
-    <t>status-fernmetastasen</t>
-  </si>
-  <si>
-    <t>StatusFernmetastasen</t>
-  </si>
-  <si>
-    <t>LOINC#42085-1</t>
-  </si>
-  <si>
-    <t>status-lymphknoten</t>
-  </si>
-  <si>
-    <t>Beurteilung Primärtumor</t>
-  </si>
-  <si>
-    <t>LOINC#21892-5</t>
-  </si>
-  <si>
-    <t>status-primaertumor</t>
-  </si>
-  <si>
-    <t>Status Primärtumor</t>
-  </si>
-  <si>
-    <t>LOINC#22035-0</t>
-  </si>
-  <si>
     <t>StrahlenTherapieFreitext</t>
   </si>
   <si>
     <t>CustomCodes#strahlenTherapieFreitext</t>
   </si>
   <si>
-    <t>tnm-distant-metastases-category</t>
-  </si>
-  <si>
-    <t>TNM Distant Metastases Category Profile</t>
-  </si>
-  <si>
-    <t>TNMASymbol</t>
-  </si>
-  <si>
-    <t>LOINC#101660-9</t>
-  </si>
-  <si>
-    <t>booleanĵ</t>
-  </si>
-  <si>
     <t>TNMFreitext</t>
   </si>
   <si>
     <t>CustomCodes#tnm-FreitextObservation</t>
   </si>
   <si>
-    <t>TNMLKategorie</t>
-  </si>
-  <si>
-    <t>LOINC#33739-4</t>
-  </si>
-  <si>
-    <t>TNMmSymbol</t>
-  </si>
-  <si>
-    <t>SNOMED CT#277650004</t>
-  </si>
-  <si>
-    <t>TNMPnKategorie</t>
-  </si>
-  <si>
-    <t>LOINC#92837-4</t>
-  </si>
-  <si>
-    <t>TNMRSymbol</t>
-  </si>
-  <si>
-    <t>LOINC#21983-2</t>
-  </si>
-  <si>
-    <t>TNMSKategorie</t>
-  </si>
-  <si>
-    <t>SNOMED CT#399424006</t>
-  </si>
-  <si>
-    <t>TNMVKategorie</t>
-  </si>
-  <si>
-    <t>LOINC#33740-2</t>
-  </si>
-  <si>
-    <t>TNMYSymbol</t>
-  </si>
-  <si>
-    <t>LOINC#59479-6</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
     <t>tumor-board-anmeldung</t>
   </si>
   <si>
@@ -453,51 +309,6 @@
   </si>
   <si>
     <t>CustomCodes#zweitmeinung</t>
-  </si>
-  <si>
-    <t>tumorkonferenz-bemerkung</t>
-  </si>
-  <si>
-    <t>TumorkonferenzBemerkung</t>
-  </si>
-  <si>
-    <t>SNOMED CT#703852005</t>
-  </si>
-  <si>
-    <t>tumorkonferenz-fragestellung</t>
-  </si>
-  <si>
-    <t>TumorkonferenzFragestellung</t>
-  </si>
-  <si>
-    <t>SNOMED CT#103320006</t>
-  </si>
-  <si>
-    <t>tumorkonferenz-fragestellung-radiologie</t>
-  </si>
-  <si>
-    <t>TumorkonferenzFragestellungRadiologie</t>
-  </si>
-  <si>
-    <t>SNOMED CT#103320006:246061005=394914008</t>
-  </si>
-  <si>
-    <t>tumorkonferenz-situation</t>
-  </si>
-  <si>
-    <t>TumorkonferenzSituation</t>
-  </si>
-  <si>
-    <t>SNOMED CT#276099005</t>
-  </si>
-  <si>
-    <t>tumorkonferenz-therapie-verlauf</t>
-  </si>
-  <si>
-    <t>TumorkonferenzTherapieVerlauf</t>
-  </si>
-  <si>
-    <t>SNOMED CT#308273005</t>
   </si>
   <si>
     <t>tumorsituation</t>
@@ -658,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1244,10 +1055,10 @@
         <v>13</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>17</v>
@@ -1261,10 +1072,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1273,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>13</v>
@@ -1282,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>17</v>
@@ -1296,10 +1107,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1308,16 +1119,16 @@
         <v>13</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>17</v>
@@ -1331,10 +1142,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1343,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>13</v>
@@ -1352,7 +1163,7 @@
         <v>15</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>17</v>
@@ -1366,10 +1177,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1378,16 +1189,16 @@
         <v>13</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>17</v>
@@ -1401,7 +1212,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>69</v>
@@ -1413,16 +1224,16 @@
         <v>13</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>17</v>
@@ -1436,10 +1247,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1454,10 +1265,10 @@
         <v>13</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>17</v>
@@ -1471,10 +1282,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1483,16 +1294,16 @@
         <v>13</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>17</v>
@@ -1506,10 +1317,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1518,16 +1329,16 @@
         <v>13</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>17</v>
@@ -1541,10 +1352,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1553,13 +1364,13 @@
         <v>13</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>16</v>
@@ -1576,10 +1387,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1588,7 +1399,7 @@
         <v>13</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>13</v>
@@ -1611,10 +1422,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1623,7 +1434,7 @@
         <v>13</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>13</v>
@@ -1646,10 +1457,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1658,7 +1469,7 @@
         <v>13</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>13</v>
@@ -1667,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>17</v>
@@ -1681,10 +1492,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1693,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>13</v>
@@ -1716,10 +1527,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1728,7 +1539,7 @@
         <v>13</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>13</v>
@@ -1737,7 +1548,7 @@
         <v>15</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>17</v>
@@ -1751,10 +1562,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1763,13 +1574,13 @@
         <v>13</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>21</v>
@@ -1786,7 +1597,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>94</v>
@@ -1798,16 +1609,16 @@
         <v>13</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>13</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>17</v>
@@ -1821,10 +1632,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1839,10 +1650,10 @@
         <v>13</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>17</v>
@@ -1877,7 +1688,7 @@
         <v>15</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>17</v>
@@ -1947,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>17</v>
@@ -1956,916 +1767,6 @@
         <v>13</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D40" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E49" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E51" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E55" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E56" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E57" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E59" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K63" t="s" s="2">
         <v>13</v>
       </c>
     </row>
